--- a/backend/fms_core/tests/invalid_templates/Project_link_samples_v4_0_0_invalid_project.xlsx
+++ b/backend/fms_core/tests/invalid_templates/Project_link_samples_v4_0_0_invalid_project.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Project link samples Template</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Sample Container Coord</t>
   </si>
   <si>
-    <t>Add</t>
+    <t>Add to project and/or study</t>
   </si>
   <si>
     <t>ProjectTest4</t>
@@ -62,7 +62,13 @@
     <t>CONTAINER4PROJECTLINKSAMPLES1</t>
   </si>
   <si>
-    <t>Remove</t>
+    <t xml:space="preserve">Add to project and/or study </t>
+  </si>
+  <si>
+    <t>Remove from project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove from study </t>
   </si>
 </sst>
 </file>
@@ -291,7 +297,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -352,7 +358,7 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -364,17 +370,14 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1473,7 +1476,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5234" style="1" customWidth="1"/>
     <col min="2" max="5" width="22.3516" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" style="1" customWidth="1"/>
     <col min="7" max="8" width="22.3516" style="1" customWidth="1"/>
@@ -1613,7 +1616,7 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="24"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="23"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1630,971 +1633,971 @@
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="25"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="25"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="25"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
-      <c r="H20" s="25"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
-      <c r="H21" s="25"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
-      <c r="H22" s="25"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
-      <c r="H23" s="25"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
-      <c r="H24" s="25"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="25"/>
+      <c r="H25" s="24"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
-      <c r="H27" s="25"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
-      <c r="H28" s="25"/>
+      <c r="H28" s="24"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="26"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
-      <c r="H29" s="25"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="25"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="25"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
-      <c r="H32" s="25"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="25"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="25"/>
+      <c r="H34" s="24"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="26"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="25"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="25"/>
+      <c r="H36" s="24"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="26"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="25"/>
+      <c r="H37" s="24"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="26"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="25"/>
+      <c r="H38" s="24"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="26"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
-      <c r="H39" s="25"/>
+      <c r="H39" s="24"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="26"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="25"/>
+      <c r="H40" s="24"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="26"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="25"/>
+      <c r="H41" s="24"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="26"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="25"/>
+      <c r="H42" s="24"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="26"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="25"/>
+      <c r="H43" s="24"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="26"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="25"/>
+      <c r="H44" s="24"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="26"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
-      <c r="H45" s="25"/>
+      <c r="H45" s="24"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="26"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
-      <c r="H46" s="25"/>
+      <c r="H46" s="24"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="26"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
-      <c r="H47" s="25"/>
+      <c r="H47" s="24"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="26"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
-      <c r="H48" s="25"/>
+      <c r="H48" s="24"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="26"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
-      <c r="H49" s="25"/>
+      <c r="H49" s="24"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="26"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
-      <c r="H50" s="25"/>
+      <c r="H50" s="24"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="26"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
-      <c r="H51" s="25"/>
+      <c r="H51" s="24"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="26"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
-      <c r="H52" s="25"/>
+      <c r="H52" s="24"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="26"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
-      <c r="H53" s="25"/>
+      <c r="H53" s="24"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="26"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
-      <c r="H54" s="25"/>
+      <c r="H54" s="24"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="26"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
-      <c r="H55" s="25"/>
+      <c r="H55" s="24"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="26"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
-      <c r="H56" s="25"/>
+      <c r="H56" s="24"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="26"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
-      <c r="H57" s="25"/>
+      <c r="H57" s="24"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="26"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
-      <c r="H58" s="25"/>
+      <c r="H58" s="24"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="26"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
-      <c r="H59" s="25"/>
+      <c r="H59" s="24"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="26"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="23"/>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
-      <c r="H60" s="25"/>
+      <c r="H60" s="24"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="26"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="25"/>
+      <c r="H61" s="24"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="26"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
-      <c r="H62" s="25"/>
+      <c r="H62" s="24"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="26"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="25"/>
+      <c r="H63" s="24"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="26"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
-      <c r="H64" s="25"/>
+      <c r="H64" s="24"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="26"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
-      <c r="H65" s="25"/>
+      <c r="H65" s="24"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="26"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="25"/>
+      <c r="H66" s="24"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="26"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="23"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
-      <c r="H67" s="25"/>
+      <c r="H67" s="24"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="26"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
-      <c r="H68" s="25"/>
+      <c r="H68" s="24"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="26"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
-      <c r="H69" s="25"/>
+      <c r="H69" s="24"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="26"/>
-      <c r="B70" s="20"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="23"/>
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
-      <c r="H70" s="25"/>
+      <c r="H70" s="24"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="26"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="23"/>
       <c r="D71" s="23"/>
       <c r="E71" s="23"/>
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
-      <c r="H71" s="25"/>
+      <c r="H71" s="24"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="26"/>
-      <c r="B72" s="20"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
-      <c r="H72" s="25"/>
+      <c r="H72" s="24"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="26"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="25"/>
+      <c r="H73" s="24"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="26"/>
-      <c r="B74" s="20"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
-      <c r="H74" s="25"/>
+      <c r="H74" s="24"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="26"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="25"/>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
       <c r="E75" s="23"/>
       <c r="F75" s="23"/>
       <c r="G75" s="23"/>
-      <c r="H75" s="25"/>
+      <c r="H75" s="24"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="26"/>
-      <c r="B76" s="20"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="25"/>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
       <c r="G76" s="23"/>
-      <c r="H76" s="25"/>
+      <c r="H76" s="24"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="26"/>
-      <c r="B77" s="20"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="25"/>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
       <c r="G77" s="23"/>
-      <c r="H77" s="25"/>
+      <c r="H77" s="24"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="26"/>
-      <c r="B78" s="20"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="25"/>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="25"/>
+      <c r="H78" s="24"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="26"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="23"/>
       <c r="D79" s="23"/>
       <c r="E79" s="23"/>
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
-      <c r="H79" s="25"/>
+      <c r="H79" s="24"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="26"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="25"/>
       <c r="C80" s="23"/>
       <c r="D80" s="23"/>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
       <c r="G80" s="23"/>
-      <c r="H80" s="25"/>
+      <c r="H80" s="24"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="26"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
-      <c r="H81" s="25"/>
+      <c r="H81" s="24"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="26"/>
-      <c r="B82" s="20"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="25"/>
       <c r="C82" s="23"/>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
-      <c r="H82" s="25"/>
+      <c r="H82" s="24"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="26"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="25"/>
       <c r="C83" s="23"/>
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
       <c r="G83" s="23"/>
-      <c r="H83" s="25"/>
+      <c r="H83" s="24"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="26"/>
-      <c r="B84" s="20"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="23"/>
       <c r="D84" s="23"/>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
       <c r="G84" s="23"/>
-      <c r="H84" s="25"/>
+      <c r="H84" s="24"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="26"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="23"/>
       <c r="D85" s="23"/>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
-      <c r="H85" s="25"/>
+      <c r="H85" s="24"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="26"/>
-      <c r="B86" s="20"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="23"/>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
       <c r="G86" s="23"/>
-      <c r="H86" s="25"/>
+      <c r="H86" s="24"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="26"/>
-      <c r="B87" s="20"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="23"/>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
       <c r="F87" s="23"/>
       <c r="G87" s="23"/>
-      <c r="H87" s="25"/>
+      <c r="H87" s="24"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="26"/>
-      <c r="B88" s="20"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="23"/>
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
       <c r="G88" s="23"/>
-      <c r="H88" s="25"/>
+      <c r="H88" s="24"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="26"/>
-      <c r="B89" s="20"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="25"/>
       <c r="C89" s="23"/>
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
       <c r="F89" s="23"/>
       <c r="G89" s="23"/>
-      <c r="H89" s="25"/>
+      <c r="H89" s="24"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="26"/>
-      <c r="B90" s="20"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="25"/>
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="25"/>
+      <c r="H90" s="24"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="26"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="25"/>
       <c r="C91" s="23"/>
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>
       <c r="F91" s="23"/>
       <c r="G91" s="23"/>
-      <c r="H91" s="25"/>
+      <c r="H91" s="24"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="26"/>
-      <c r="B92" s="20"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="25"/>
       <c r="C92" s="23"/>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
       <c r="G92" s="23"/>
-      <c r="H92" s="25"/>
+      <c r="H92" s="24"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="26"/>
-      <c r="B93" s="20"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="25"/>
       <c r="C93" s="23"/>
       <c r="D93" s="23"/>
       <c r="E93" s="23"/>
       <c r="F93" s="23"/>
       <c r="G93" s="23"/>
-      <c r="H93" s="25"/>
+      <c r="H93" s="24"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="26"/>
-      <c r="B94" s="20"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="25"/>
       <c r="C94" s="23"/>
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
       <c r="F94" s="23"/>
       <c r="G94" s="23"/>
-      <c r="H94" s="25"/>
+      <c r="H94" s="24"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="26"/>
-      <c r="B95" s="20"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="25"/>
       <c r="C95" s="23"/>
       <c r="D95" s="23"/>
       <c r="E95" s="23"/>
       <c r="F95" s="23"/>
       <c r="G95" s="23"/>
-      <c r="H95" s="25"/>
+      <c r="H95" s="24"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="26"/>
-      <c r="B96" s="20"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="25"/>
       <c r="C96" s="23"/>
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="25"/>
+      <c r="H96" s="24"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="26"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="25"/>
       <c r="C97" s="23"/>
       <c r="D97" s="23"/>
       <c r="E97" s="23"/>
       <c r="F97" s="23"/>
       <c r="G97" s="23"/>
-      <c r="H97" s="25"/>
+      <c r="H97" s="24"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="26"/>
-      <c r="B98" s="20"/>
+      <c r="B98" s="25"/>
       <c r="C98" s="23"/>
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
       <c r="G98" s="23"/>
-      <c r="H98" s="25"/>
+      <c r="H98" s="24"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="26"/>
-      <c r="B99" s="20"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="23"/>
       <c r="D99" s="23"/>
       <c r="E99" s="23"/>
       <c r="F99" s="23"/>
       <c r="G99" s="23"/>
-      <c r="H99" s="25"/>
+      <c r="H99" s="24"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="26"/>
-      <c r="B100" s="20"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
       <c r="F100" s="23"/>
       <c r="G100" s="23"/>
-      <c r="H100" s="25"/>
+      <c r="H100" s="24"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="26"/>
-      <c r="B101" s="20"/>
+      <c r="B101" s="25"/>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
       <c r="F101" s="23"/>
       <c r="G101" s="23"/>
-      <c r="H101" s="25"/>
+      <c r="H101" s="24"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="26"/>
-      <c r="B102" s="20"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
       <c r="F102" s="23"/>
       <c r="G102" s="23"/>
-      <c r="H102" s="25"/>
+      <c r="H102" s="24"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="26"/>
-      <c r="B103" s="20"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
-      <c r="H103" s="25"/>
+      <c r="H103" s="24"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="26"/>
-      <c r="B104" s="20"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
       <c r="F104" s="23"/>
       <c r="G104" s="23"/>
-      <c r="H104" s="25"/>
+      <c r="H104" s="24"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="26"/>
-      <c r="B105" s="20"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
       <c r="F105" s="23"/>
       <c r="G105" s="23"/>
-      <c r="H105" s="25"/>
+      <c r="H105" s="24"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="26"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="26"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="26"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="26"/>
-      <c r="B109" s="27"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -2604,7 +2607,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="26"/>
-      <c r="B110" s="27"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -2614,7 +2617,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="26"/>
-      <c r="B111" s="27"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -2624,7 +2627,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="26"/>
-      <c r="B112" s="27"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -2634,7 +2637,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="26"/>
-      <c r="B113" s="27"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -2644,7 +2647,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="26"/>
-      <c r="B114" s="27"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -2654,7 +2657,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="26"/>
-      <c r="B115" s="27"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -2664,7 +2667,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="26"/>
-      <c r="B116" s="27"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -2674,7 +2677,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="26"/>
-      <c r="B117" s="27"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -2684,7 +2687,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="26"/>
-      <c r="B118" s="27"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -2694,7 +2697,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="26"/>
-      <c r="B119" s="27"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -2704,7 +2707,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="26"/>
-      <c r="B120" s="27"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -2714,7 +2717,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="26"/>
-      <c r="B121" s="27"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -2724,7 +2727,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="26"/>
-      <c r="B122" s="27"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -2734,7 +2737,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="26"/>
-      <c r="B123" s="27"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -2744,7 +2747,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="26"/>
-      <c r="B124" s="27"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -2754,7 +2757,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="26"/>
-      <c r="B125" s="27"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -2764,7 +2767,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="26"/>
-      <c r="B126" s="27"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -2774,7 +2777,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="26"/>
-      <c r="B127" s="27"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -2784,7 +2787,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="26"/>
-      <c r="B128" s="27"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -2794,7 +2797,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="26"/>
-      <c r="B129" s="27"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -2804,7 +2807,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="26"/>
-      <c r="B130" s="27"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -2814,7 +2817,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="26"/>
-      <c r="B131" s="27"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -2824,7 +2827,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="26"/>
-      <c r="B132" s="27"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -2834,7 +2837,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="26"/>
-      <c r="B133" s="27"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -2844,7 +2847,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="26"/>
-      <c r="B134" s="27"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -2854,7 +2857,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="26"/>
-      <c r="B135" s="27"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -2864,7 +2867,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="26"/>
-      <c r="B136" s="27"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -2874,7 +2877,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="26"/>
-      <c r="B137" s="27"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -2884,7 +2887,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="26"/>
-      <c r="B138" s="27"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -2894,7 +2897,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="26"/>
-      <c r="B139" s="27"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -2904,7 +2907,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="26"/>
-      <c r="B140" s="27"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="26"/>
-      <c r="B141" s="27"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -2924,7 +2927,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="26"/>
-      <c r="B142" s="27"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -2934,7 +2937,7 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="26"/>
-      <c r="B143" s="27"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -2944,7 +2947,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="26"/>
-      <c r="B144" s="27"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -2954,7 +2957,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="26"/>
-      <c r="B145" s="27"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -2964,7 +2967,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="26"/>
-      <c r="B146" s="27"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -2974,7 +2977,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="26"/>
-      <c r="B147" s="27"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -2984,7 +2987,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="26"/>
-      <c r="B148" s="27"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -2994,7 +2997,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="26"/>
-      <c r="B149" s="27"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -3004,7 +3007,7 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="26"/>
-      <c r="B150" s="27"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="26"/>
-      <c r="B151" s="27"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -3024,7 +3027,7 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="26"/>
-      <c r="B152" s="27"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -3034,7 +3037,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="26"/>
-      <c r="B153" s="27"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -3044,7 +3047,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="26"/>
-      <c r="B154" s="27"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -3054,7 +3057,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="26"/>
-      <c r="B155" s="27"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -3064,7 +3067,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="26"/>
-      <c r="B156" s="27"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -3074,7 +3077,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="26"/>
-      <c r="B157" s="27"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -3084,7 +3087,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="26"/>
-      <c r="B158" s="27"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -3094,7 +3097,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="26"/>
-      <c r="B159" s="27"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -3104,7 +3107,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="26"/>
-      <c r="B160" s="27"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -3114,7 +3117,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="26"/>
-      <c r="B161" s="27"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -3124,7 +3127,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="26"/>
-      <c r="B162" s="27"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -3134,7 +3137,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="26"/>
-      <c r="B163" s="27"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -3144,7 +3147,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="26"/>
-      <c r="B164" s="27"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -3154,7 +3157,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="26"/>
-      <c r="B165" s="27"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -3164,7 +3167,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="26"/>
-      <c r="B166" s="27"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -3174,7 +3177,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="26"/>
-      <c r="B167" s="27"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -3184,7 +3187,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="26"/>
-      <c r="B168" s="27"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -3194,7 +3197,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="26"/>
-      <c r="B169" s="27"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -3204,7 +3207,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="26"/>
-      <c r="B170" s="27"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -3214,7 +3217,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="26"/>
-      <c r="B171" s="27"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -3224,7 +3227,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="26"/>
-      <c r="B172" s="27"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -3234,7 +3237,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="26"/>
-      <c r="B173" s="27"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -3244,7 +3247,7 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="26"/>
-      <c r="B174" s="27"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -3254,7 +3257,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="26"/>
-      <c r="B175" s="27"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -3264,7 +3267,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="26"/>
-      <c r="B176" s="27"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -3274,7 +3277,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="26"/>
-      <c r="B177" s="27"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -3284,7 +3287,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="26"/>
-      <c r="B178" s="27"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -3294,7 +3297,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="26"/>
-      <c r="B179" s="27"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -3304,7 +3307,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="26"/>
-      <c r="B180" s="27"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -3314,7 +3317,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="26"/>
-      <c r="B181" s="27"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -3324,7 +3327,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="26"/>
-      <c r="B182" s="27"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -3334,7 +3337,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="26"/>
-      <c r="B183" s="27"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -3344,7 +3347,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="26"/>
-      <c r="B184" s="27"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -3354,7 +3357,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="26"/>
-      <c r="B185" s="27"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -3364,7 +3367,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="26"/>
-      <c r="B186" s="27"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -3374,7 +3377,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="26"/>
-      <c r="B187" s="27"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -3384,7 +3387,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="26"/>
-      <c r="B188" s="27"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -3394,7 +3397,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="26"/>
-      <c r="B189" s="27"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="26"/>
-      <c r="B190" s="27"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -3414,7 +3417,7 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="26"/>
-      <c r="B191" s="27"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -3424,7 +3427,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="26"/>
-      <c r="B192" s="27"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -3434,7 +3437,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="26"/>
-      <c r="B193" s="27"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -3444,7 +3447,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="26"/>
-      <c r="B194" s="27"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -3454,7 +3457,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="26"/>
-      <c r="B195" s="27"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -3464,7 +3467,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="26"/>
-      <c r="B196" s="27"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -3474,7 +3477,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="26"/>
-      <c r="B197" s="27"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -3484,7 +3487,7 @@
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="26"/>
-      <c r="B198" s="27"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -3494,7 +3497,7 @@
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="26"/>
-      <c r="B199" s="27"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -3504,7 +3507,7 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="26"/>
-      <c r="B200" s="27"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -3514,7 +3517,7 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="26"/>
-      <c r="B201" s="27"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -3524,7 +3527,7 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="26"/>
-      <c r="B202" s="27"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -3534,7 +3537,7 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="26"/>
-      <c r="B203" s="27"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="26"/>
-      <c r="B204" s="27"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -3554,7 +3557,7 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="26"/>
-      <c r="B205" s="27"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -3564,7 +3567,7 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="26"/>
-      <c r="B206" s="27"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -3574,7 +3577,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="26"/>
-      <c r="B207" s="27"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -3584,7 +3587,7 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="26"/>
-      <c r="B208" s="27"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -3594,7 +3597,7 @@
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="26"/>
-      <c r="B209" s="27"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -3604,7 +3607,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="26"/>
-      <c r="B210" s="27"/>
+      <c r="B210" s="20"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -3614,7 +3617,7 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="26"/>
-      <c r="B211" s="27"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -3624,7 +3627,7 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="26"/>
-      <c r="B212" s="27"/>
+      <c r="B212" s="20"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -3634,7 +3637,7 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="26"/>
-      <c r="B213" s="27"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -3644,7 +3647,7 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="26"/>
-      <c r="B214" s="27"/>
+      <c r="B214" s="20"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -3654,7 +3657,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="26"/>
-      <c r="B215" s="27"/>
+      <c r="B215" s="20"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -3664,7 +3667,7 @@
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="26"/>
-      <c r="B216" s="27"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -3674,7 +3677,7 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="26"/>
-      <c r="B217" s="27"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -3684,7 +3687,7 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="26"/>
-      <c r="B218" s="27"/>
+      <c r="B218" s="20"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -3694,7 +3697,7 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="26"/>
-      <c r="B219" s="27"/>
+      <c r="B219" s="20"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -3704,7 +3707,7 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="26"/>
-      <c r="B220" s="27"/>
+      <c r="B220" s="20"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -4583,8 +4586,11 @@
       <c r="H307" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A13:A307">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A96">
+      <formula1>",Add to project and/or study,Remove from project,Remove from study"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A97:A307">
       <formula1>"Add,Remove"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4604,13 +4610,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.3516" style="28" customWidth="1"/>
-    <col min="2" max="5" width="9.35156" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="28" customWidth="1"/>
+    <col min="1" max="1" width="24.7266" style="27" customWidth="1"/>
+    <col min="2" max="5" width="9.35156" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" t="s" s="29">
+      <c r="A1" t="s" s="28">
         <v>5</v>
       </c>
       <c r="B1" s="4"/>
@@ -4620,7 +4626,7 @@
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" t="s" s="23">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4629,7 +4635,7 @@
     </row>
     <row r="3" ht="13.5" customHeight="1">
       <c r="A3" t="s" s="23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4637,91 +4643,93 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="25"/>
+      <c r="A4" t="s" s="23">
+        <v>18</v>
+      </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="25"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>

--- a/backend/fms_core/tests/invalid_templates/Project_link_samples_v4_0_0_invalid_project.xlsx
+++ b/backend/fms_core/tests/invalid_templates/Project_link_samples_v4_0_0_invalid_project.xlsx
@@ -38,7 +38,7 @@
     <t>Study</t>
   </si>
   <si>
-    <t>Workflow Step Start</t>
+    <t>Workflow Step Order</t>
   </si>
   <si>
     <t>Sample Name</t>
@@ -50,7 +50,7 @@
     <t>Sample Container Coord</t>
   </si>
   <si>
-    <t>Add to project and/or study</t>
+    <t>Add to project</t>
   </si>
   <si>
     <t>ProjectTest4</t>
@@ -62,7 +62,7 @@
     <t>CONTAINER4PROJECTLINKSAMPLES1</t>
   </si>
   <si>
-    <t xml:space="preserve">Add to project and/or study </t>
+    <t>Add to study</t>
   </si>
   <si>
     <t>Remove from project</t>
@@ -1476,7 +1476,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="26.5234" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
     <col min="2" max="5" width="22.3516" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" style="1" customWidth="1"/>
     <col min="7" max="8" width="22.3516" style="1" customWidth="1"/>
@@ -2476,7 +2476,7 @@
       <c r="H96" s="24"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="26"/>
+      <c r="A97" s="20"/>
       <c r="B97" s="25"/>
       <c r="C97" s="23"/>
       <c r="D97" s="23"/>
@@ -2486,7 +2486,7 @@
       <c r="H97" s="24"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="26"/>
+      <c r="A98" s="20"/>
       <c r="B98" s="25"/>
       <c r="C98" s="23"/>
       <c r="D98" s="23"/>
@@ -2496,7 +2496,7 @@
       <c r="H98" s="24"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="26"/>
+      <c r="A99" s="20"/>
       <c r="B99" s="25"/>
       <c r="C99" s="23"/>
       <c r="D99" s="23"/>
@@ -2506,7 +2506,7 @@
       <c r="H99" s="24"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="26"/>
+      <c r="A100" s="20"/>
       <c r="B100" s="25"/>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
@@ -2516,7 +2516,7 @@
       <c r="H100" s="24"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="26"/>
+      <c r="A101" s="20"/>
       <c r="B101" s="25"/>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
@@ -2526,7 +2526,7 @@
       <c r="H101" s="24"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="26"/>
+      <c r="A102" s="20"/>
       <c r="B102" s="25"/>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
@@ -2536,7 +2536,7 @@
       <c r="H102" s="24"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="26"/>
+      <c r="A103" s="20"/>
       <c r="B103" s="25"/>
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
@@ -2546,7 +2546,7 @@
       <c r="H103" s="24"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="26"/>
+      <c r="A104" s="20"/>
       <c r="B104" s="25"/>
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
@@ -2556,7 +2556,7 @@
       <c r="H104" s="24"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="26"/>
+      <c r="A105" s="20"/>
       <c r="B105" s="25"/>
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
@@ -2566,7 +2566,7 @@
       <c r="H105" s="24"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="26"/>
+      <c r="A106" s="20"/>
       <c r="B106" s="20"/>
       <c r="C106" s="24"/>
       <c r="D106" s="24"/>
@@ -2576,7 +2576,7 @@
       <c r="H106" s="24"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="26"/>
+      <c r="A107" s="20"/>
       <c r="B107" s="20"/>
       <c r="C107" s="24"/>
       <c r="D107" s="24"/>
@@ -2586,7 +2586,7 @@
       <c r="H107" s="24"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="26"/>
+      <c r="A108" s="20"/>
       <c r="B108" s="20"/>
       <c r="C108" s="24"/>
       <c r="D108" s="24"/>
@@ -2596,7 +2596,7 @@
       <c r="H108" s="24"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="26"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="20"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -2606,7 +2606,7 @@
       <c r="H109" s="4"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="26"/>
+      <c r="A110" s="20"/>
       <c r="B110" s="20"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -2616,7 +2616,7 @@
       <c r="H110" s="4"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="26"/>
+      <c r="A111" s="20"/>
       <c r="B111" s="20"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -2626,7 +2626,7 @@
       <c r="H111" s="4"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="26"/>
+      <c r="A112" s="20"/>
       <c r="B112" s="20"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -2636,7 +2636,7 @@
       <c r="H112" s="4"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="26"/>
+      <c r="A113" s="20"/>
       <c r="B113" s="20"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -2646,7 +2646,7 @@
       <c r="H113" s="4"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="26"/>
+      <c r="A114" s="20"/>
       <c r="B114" s="20"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -2656,7 +2656,7 @@
       <c r="H114" s="4"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="26"/>
+      <c r="A115" s="20"/>
       <c r="B115" s="20"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -2666,7 +2666,7 @@
       <c r="H115" s="4"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="26"/>
+      <c r="A116" s="20"/>
       <c r="B116" s="20"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -2676,7 +2676,7 @@
       <c r="H116" s="4"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="26"/>
+      <c r="A117" s="20"/>
       <c r="B117" s="20"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -2686,7 +2686,7 @@
       <c r="H117" s="4"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="26"/>
+      <c r="A118" s="20"/>
       <c r="B118" s="20"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -2696,7 +2696,7 @@
       <c r="H118" s="4"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="26"/>
+      <c r="A119" s="20"/>
       <c r="B119" s="20"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -2706,7 +2706,7 @@
       <c r="H119" s="4"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="26"/>
+      <c r="A120" s="20"/>
       <c r="B120" s="20"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -2716,7 +2716,7 @@
       <c r="H120" s="4"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="26"/>
+      <c r="A121" s="20"/>
       <c r="B121" s="20"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -2726,7 +2726,7 @@
       <c r="H121" s="4"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="26"/>
+      <c r="A122" s="20"/>
       <c r="B122" s="20"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -2736,7 +2736,7 @@
       <c r="H122" s="4"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="26"/>
+      <c r="A123" s="20"/>
       <c r="B123" s="20"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -2746,7 +2746,7 @@
       <c r="H123" s="4"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="26"/>
+      <c r="A124" s="20"/>
       <c r="B124" s="20"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -2756,7 +2756,7 @@
       <c r="H124" s="4"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="26"/>
+      <c r="A125" s="20"/>
       <c r="B125" s="20"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -2766,7 +2766,7 @@
       <c r="H125" s="4"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="26"/>
+      <c r="A126" s="20"/>
       <c r="B126" s="20"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -2776,7 +2776,7 @@
       <c r="H126" s="4"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="26"/>
+      <c r="A127" s="20"/>
       <c r="B127" s="20"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -2786,7 +2786,7 @@
       <c r="H127" s="4"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="26"/>
+      <c r="A128" s="20"/>
       <c r="B128" s="20"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -2796,7 +2796,7 @@
       <c r="H128" s="4"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="26"/>
+      <c r="A129" s="20"/>
       <c r="B129" s="20"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -2806,7 +2806,7 @@
       <c r="H129" s="4"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="26"/>
+      <c r="A130" s="20"/>
       <c r="B130" s="20"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -2816,7 +2816,7 @@
       <c r="H130" s="4"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="26"/>
+      <c r="A131" s="20"/>
       <c r="B131" s="20"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -2826,7 +2826,7 @@
       <c r="H131" s="4"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="26"/>
+      <c r="A132" s="20"/>
       <c r="B132" s="20"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -2836,7 +2836,7 @@
       <c r="H132" s="4"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="26"/>
+      <c r="A133" s="20"/>
       <c r="B133" s="20"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -2846,7 +2846,7 @@
       <c r="H133" s="4"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="26"/>
+      <c r="A134" s="20"/>
       <c r="B134" s="20"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -2856,7 +2856,7 @@
       <c r="H134" s="4"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="26"/>
+      <c r="A135" s="20"/>
       <c r="B135" s="20"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -2866,7 +2866,7 @@
       <c r="H135" s="4"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="26"/>
+      <c r="A136" s="20"/>
       <c r="B136" s="20"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -2876,7 +2876,7 @@
       <c r="H136" s="4"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="26"/>
+      <c r="A137" s="20"/>
       <c r="B137" s="20"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -2886,7 +2886,7 @@
       <c r="H137" s="4"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="26"/>
+      <c r="A138" s="20"/>
       <c r="B138" s="20"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -2896,7 +2896,7 @@
       <c r="H138" s="4"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="26"/>
+      <c r="A139" s="20"/>
       <c r="B139" s="20"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -2906,7 +2906,7 @@
       <c r="H139" s="4"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="26"/>
+      <c r="A140" s="20"/>
       <c r="B140" s="20"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -2916,7 +2916,7 @@
       <c r="H140" s="4"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="26"/>
+      <c r="A141" s="20"/>
       <c r="B141" s="20"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -2926,7 +2926,7 @@
       <c r="H141" s="4"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="26"/>
+      <c r="A142" s="20"/>
       <c r="B142" s="20"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -2936,7 +2936,7 @@
       <c r="H142" s="4"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="26"/>
+      <c r="A143" s="20"/>
       <c r="B143" s="20"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -2946,7 +2946,7 @@
       <c r="H143" s="4"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="26"/>
+      <c r="A144" s="20"/>
       <c r="B144" s="20"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -2956,7 +2956,7 @@
       <c r="H144" s="4"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="26"/>
+      <c r="A145" s="20"/>
       <c r="B145" s="20"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -2966,7 +2966,7 @@
       <c r="H145" s="4"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="26"/>
+      <c r="A146" s="20"/>
       <c r="B146" s="20"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -2976,7 +2976,7 @@
       <c r="H146" s="4"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="26"/>
+      <c r="A147" s="20"/>
       <c r="B147" s="20"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -2986,7 +2986,7 @@
       <c r="H147" s="4"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="26"/>
+      <c r="A148" s="20"/>
       <c r="B148" s="20"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -2996,7 +2996,7 @@
       <c r="H148" s="4"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="26"/>
+      <c r="A149" s="20"/>
       <c r="B149" s="20"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -3006,7 +3006,7 @@
       <c r="H149" s="4"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="26"/>
+      <c r="A150" s="20"/>
       <c r="B150" s="20"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -3016,7 +3016,7 @@
       <c r="H150" s="4"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="26"/>
+      <c r="A151" s="20"/>
       <c r="B151" s="20"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -3026,7 +3026,7 @@
       <c r="H151" s="4"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="26"/>
+      <c r="A152" s="20"/>
       <c r="B152" s="20"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -3036,7 +3036,7 @@
       <c r="H152" s="4"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="26"/>
+      <c r="A153" s="20"/>
       <c r="B153" s="20"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -3046,7 +3046,7 @@
       <c r="H153" s="4"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="26"/>
+      <c r="A154" s="20"/>
       <c r="B154" s="20"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -3056,7 +3056,7 @@
       <c r="H154" s="4"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="26"/>
+      <c r="A155" s="20"/>
       <c r="B155" s="20"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -3066,7 +3066,7 @@
       <c r="H155" s="4"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="26"/>
+      <c r="A156" s="20"/>
       <c r="B156" s="20"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -3076,7 +3076,7 @@
       <c r="H156" s="4"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="26"/>
+      <c r="A157" s="20"/>
       <c r="B157" s="20"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -3086,7 +3086,7 @@
       <c r="H157" s="4"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="26"/>
+      <c r="A158" s="20"/>
       <c r="B158" s="20"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -4587,10 +4587,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A96">
-      <formula1>",Add to project and/or study,Remove from project,Remove from study"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A158">
+      <formula1>",Add to project,Add to study,Remove from project,Remove from study"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A97:A307">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A159:A307">
       <formula1>"Add,Remove"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4604,13 +4604,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.7266" style="27" customWidth="1"/>
+    <col min="1" max="1" width="24.6719" style="27" customWidth="1"/>
     <col min="2" max="5" width="9.35156" style="27" customWidth="1"/>
     <col min="6" max="16384" width="12.6719" style="27" customWidth="1"/>
   </cols>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" t="s" s="23">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="3" ht="13.5" customHeight="1">
       <c r="A3" t="s" s="23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" t="s" s="23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4652,7 +4652,9 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" t="s" s="23">
+        <v>18</v>
+      </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4721,19 +4723,26 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="24"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="24"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1">
+      <c r="A17" s="24"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
